--- a/stato_sphere_data.xlsx
+++ b/stato_sphere_data.xlsx
@@ -495,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
@@ -6912,6 +6912,100 @@
         </is>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>STATO2564A4</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>DONGMO</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Homme</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>ISE LONG / AS</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>6985624526</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>Université Yde1</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>Douala</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>STATO25CF5A</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>DONGMO</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Danielle</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Femme</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>ISE LONG / AS</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>69878542123</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Université Yde1</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>Douala</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K147"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6925,7 +7019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -9575,6 +9669,72 @@
       </c>
       <c r="G85" t="n">
         <v>5000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Yaoundé</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Yaoundé</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Payement du loyer de septembre</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Loyer</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Douala</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Douala</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>26000</v>
       </c>
     </row>
   </sheetData>
